--- a/public/doc/출퇴근기록수정요청서.xlsx
+++ b/public/doc/출퇴근기록수정요청서.xlsx
@@ -657,37 +657,163 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -714,146 +840,20 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1152,7 +1152,7 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G4"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
@@ -1170,150 +1170,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="27" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14" t="s">
+      <c r="K1" s="29"/>
+      <c r="L1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14" t="s">
+      <c r="M1" s="29"/>
+      <c r="N1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="14"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="23"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="31"/>
     </row>
     <row r="2" spans="1:17" ht="50.1" customHeight="1">
-      <c r="A2" s="76"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="26"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="68"/>
     </row>
     <row r="3" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="78"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="32" t="s">
+      <c r="A3" s="65"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14" t="s">
+      <c r="K3" s="29"/>
+      <c r="L3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14" t="s">
+      <c r="M3" s="29"/>
+      <c r="N3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="22" t="s">
+      <c r="O3" s="29"/>
+      <c r="P3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="23"/>
+      <c r="Q3" s="31"/>
     </row>
     <row r="4" spans="1:17" ht="50.1" customHeight="1">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="70"/>
-      <c r="Q4" s="71"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="42"/>
     </row>
     <row r="5" spans="1:17" ht="32.1" customHeight="1">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="14" t="s">
+      <c r="B5" s="29"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="14" t="s">
+      <c r="H5" s="29"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="14"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="66"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="37"/>
     </row>
     <row r="6" spans="1:17" ht="32.1" customHeight="1">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="63" t="s">
+      <c r="B6" s="29"/>
+      <c r="C6" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="65"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="34"/>
     </row>
     <row r="7" spans="1:17" ht="32.1" customHeight="1">
       <c r="A7" s="4"/>
@@ -1354,100 +1354,100 @@
       <c r="Q8" s="10"/>
     </row>
     <row r="9" spans="1:17" ht="32.1" customHeight="1">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="17" t="s">
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="19"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="76"/>
+      <c r="P9" s="76"/>
+      <c r="Q9" s="77"/>
     </row>
     <row r="10" spans="1:17" ht="32.1" customHeight="1">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="17" t="s">
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="21"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="78"/>
+      <c r="O10" s="78"/>
+      <c r="P10" s="78"/>
+      <c r="Q10" s="79"/>
     </row>
     <row r="11" spans="1:17" ht="32.1" customHeight="1">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="17" t="s">
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="21"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="78"/>
+      <c r="O11" s="78"/>
+      <c r="P11" s="78"/>
+      <c r="Q11" s="79"/>
     </row>
     <row r="12" spans="1:17" ht="32.1" customHeight="1">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="50"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="16"/>
     </row>
     <row r="13" spans="1:17" ht="32.1" customHeight="1">
-      <c r="A13" s="36"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
       <c r="E13" s="11"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -1463,50 +1463,50 @@
       <c r="Q13" s="13"/>
     </row>
     <row r="14" spans="1:17" ht="32.1" customHeight="1">
-      <c r="A14" s="36"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="53"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="19"/>
     </row>
     <row r="15" spans="1:17" ht="32.1" customHeight="1">
-      <c r="A15" s="60"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="44"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="50"/>
     </row>
     <row r="16" spans="1:17" ht="32.1" customHeight="1">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="22"/>
       <c r="E16" s="57"/>
       <c r="F16" s="58"/>
       <c r="G16" s="58"/>
@@ -1522,50 +1522,50 @@
       <c r="Q16" s="59"/>
     </row>
     <row r="17" spans="1:17" ht="32.1" customHeight="1">
-      <c r="A17" s="60"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="47"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="53"/>
     </row>
     <row r="18" spans="1:17" ht="32.1" customHeight="1">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="50"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="16"/>
     </row>
     <row r="19" spans="1:17" ht="32.1" customHeight="1">
-      <c r="A19" s="36"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="38"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="25"/>
       <c r="E19" s="11"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
@@ -1581,29 +1581,29 @@
       <c r="Q19" s="13"/>
     </row>
     <row r="20" spans="1:17" ht="32.1" customHeight="1">
-      <c r="A20" s="36"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="52"/>
-      <c r="P20" s="52"/>
-      <c r="Q20" s="53"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="19"/>
     </row>
     <row r="21" spans="1:17" ht="32.1" customHeight="1" thickBot="1">
-      <c r="A21" s="39"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="41"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="47"/>
       <c r="E21" s="54"/>
       <c r="F21" s="55"/>
       <c r="G21" s="55"/>
@@ -1659,6 +1659,35 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="45">
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="E9:Q9"/>
+    <mergeCell ref="E10:Q10"/>
+    <mergeCell ref="E11:Q11"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A1:G4"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A18:D21"/>
+    <mergeCell ref="E15:Q15"/>
+    <mergeCell ref="E17:Q17"/>
+    <mergeCell ref="E18:Q18"/>
+    <mergeCell ref="E20:Q20"/>
+    <mergeCell ref="E21:Q21"/>
+    <mergeCell ref="E16:Q16"/>
+    <mergeCell ref="A16:D17"/>
     <mergeCell ref="E12:Q12"/>
     <mergeCell ref="E14:Q14"/>
     <mergeCell ref="A12:D15"/>
@@ -1675,35 +1704,6 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="L5:M5"/>
-    <mergeCell ref="A18:D21"/>
-    <mergeCell ref="E15:Q15"/>
-    <mergeCell ref="E17:Q17"/>
-    <mergeCell ref="E18:Q18"/>
-    <mergeCell ref="E20:Q20"/>
-    <mergeCell ref="E21:Q21"/>
-    <mergeCell ref="E16:Q16"/>
-    <mergeCell ref="A16:D17"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A1:G4"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="E9:Q9"/>
-    <mergeCell ref="E10:Q10"/>
-    <mergeCell ref="E11:Q11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="1.4960629921259843" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.19685039370078741"/>

--- a/public/doc/출퇴근기록수정요청서.xlsx
+++ b/public/doc/출퇴근기록수정요청서.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>담당</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -32,10 +32,6 @@
   </si>
   <si>
     <t>대표이사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부사장</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -657,6 +653,126 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -675,23 +791,23 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -700,15 +816,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -720,12 +827,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -749,111 +850,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1152,7 +1148,7 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="N4" sqref="N4:O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
@@ -1170,150 +1166,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="61" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="69" t="s">
+      <c r="A1" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="72" t="s">
+      <c r="J1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="14"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="23"/>
+    </row>
+    <row r="2" spans="1:17" ht="50.1" customHeight="1">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="32"/>
+    </row>
+    <row r="3" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29" t="s">
+      <c r="K3" s="14"/>
+      <c r="L3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29" t="s">
+      <c r="M3" s="14"/>
+      <c r="N3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="29"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="31"/>
-    </row>
-    <row r="2" spans="1:17" ht="50.1" customHeight="1">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="68"/>
-    </row>
-    <row r="3" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="65"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="74" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29" t="s">
+      <c r="O3" s="14"/>
+      <c r="P3" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="23"/>
+    </row>
+    <row r="4" spans="1:17" ht="50.1" customHeight="1">
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="77"/>
+    </row>
+    <row r="5" spans="1:17" ht="32.1" customHeight="1">
+      <c r="A5" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="29"/>
-      <c r="P3" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="31"/>
-    </row>
-    <row r="4" spans="1:17" ht="50.1" customHeight="1">
-      <c r="A4" s="65"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="42"/>
-    </row>
-    <row r="5" spans="1:17" ht="32.1" customHeight="1">
-      <c r="A5" s="43" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="14"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="29"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="29" t="s">
+      <c r="M5" s="14"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="72"/>
+    </row>
+    <row r="6" spans="1:17" ht="32.1" customHeight="1">
+      <c r="A6" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="29"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="37"/>
-    </row>
-    <row r="6" spans="1:17" ht="32.1" customHeight="1">
-      <c r="A6" s="43" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="34"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="71"/>
     </row>
     <row r="7" spans="1:17" ht="32.1" customHeight="1">
       <c r="A7" s="4"/>
@@ -1354,100 +1350,100 @@
       <c r="Q8" s="10"/>
     </row>
     <row r="9" spans="1:17" ht="32.1" customHeight="1">
-      <c r="A9" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="75" t="s">
+      <c r="A9" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="19"/>
+    </row>
+    <row r="10" spans="1:17" ht="32.1" customHeight="1">
+      <c r="A10" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="76"/>
-      <c r="O9" s="76"/>
-      <c r="P9" s="76"/>
-      <c r="Q9" s="77"/>
-    </row>
-    <row r="10" spans="1:17" ht="32.1" customHeight="1">
-      <c r="A10" s="38" t="s">
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="75" t="s">
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="21"/>
+    </row>
+    <row r="11" spans="1:17" ht="32.1" customHeight="1">
+      <c r="A11" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="78"/>
-      <c r="M10" s="78"/>
-      <c r="N10" s="78"/>
-      <c r="O10" s="78"/>
-      <c r="P10" s="78"/>
-      <c r="Q10" s="79"/>
-    </row>
-    <row r="11" spans="1:17" ht="32.1" customHeight="1">
-      <c r="A11" s="38" t="s">
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="21"/>
+    </row>
+    <row r="12" spans="1:17" ht="32.1" customHeight="1">
+      <c r="A12" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="75" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="78"/>
-      <c r="O11" s="78"/>
-      <c r="P11" s="78"/>
-      <c r="Q11" s="79"/>
-    </row>
-    <row r="12" spans="1:17" ht="32.1" customHeight="1">
-      <c r="A12" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="16"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="55"/>
+      <c r="Q12" s="56"/>
     </row>
     <row r="13" spans="1:17" ht="32.1" customHeight="1">
-      <c r="A13" s="23"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="44"/>
       <c r="E13" s="11"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -1463,29 +1459,29 @@
       <c r="Q13" s="13"/>
     </row>
     <row r="14" spans="1:17" ht="32.1" customHeight="1">
-      <c r="A14" s="23"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="19"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="59"/>
     </row>
     <row r="15" spans="1:17" ht="32.1" customHeight="1">
-      <c r="A15" s="26"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="28"/>
+      <c r="A15" s="66"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="68"/>
       <c r="E15" s="48"/>
       <c r="F15" s="49"/>
       <c r="G15" s="49"/>
@@ -1501,31 +1497,31 @@
       <c r="Q15" s="50"/>
     </row>
     <row r="16" spans="1:17" ht="32.1" customHeight="1">
-      <c r="A16" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="58"/>
-      <c r="P16" s="58"/>
-      <c r="Q16" s="59"/>
+      <c r="A16" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="65"/>
     </row>
     <row r="17" spans="1:17" ht="32.1" customHeight="1">
-      <c r="A17" s="26"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="28"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="68"/>
       <c r="E17" s="51"/>
       <c r="F17" s="52"/>
       <c r="G17" s="52"/>
@@ -1541,31 +1537,31 @@
       <c r="Q17" s="53"/>
     </row>
     <row r="18" spans="1:17" ht="32.1" customHeight="1">
-      <c r="A18" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="16"/>
+      <c r="A18" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="56"/>
     </row>
     <row r="19" spans="1:17" ht="32.1" customHeight="1">
-      <c r="A19" s="23"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="25"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="44"/>
       <c r="E19" s="11"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
@@ -1581,42 +1577,42 @@
       <c r="Q19" s="13"/>
     </row>
     <row r="20" spans="1:17" ht="32.1" customHeight="1">
-      <c r="A20" s="23"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="19"/>
+      <c r="A20" s="42"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="58"/>
+      <c r="Q20" s="59"/>
     </row>
     <row r="21" spans="1:17" ht="32.1" customHeight="1" thickBot="1">
       <c r="A21" s="45"/>
       <c r="B21" s="46"/>
       <c r="C21" s="46"/>
       <c r="D21" s="47"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="55"/>
-      <c r="O21" s="55"/>
-      <c r="P21" s="55"/>
-      <c r="Q21" s="56"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="61"/>
+      <c r="Q21" s="62"/>
     </row>
     <row r="24" spans="1:17" ht="24.95" customHeight="1">
       <c r="A24" s="2"/>
@@ -1659,11 +1655,30 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="45">
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="E9:Q9"/>
-    <mergeCell ref="E10:Q10"/>
-    <mergeCell ref="E11:Q11"/>
+    <mergeCell ref="E12:Q12"/>
+    <mergeCell ref="E14:Q14"/>
+    <mergeCell ref="A12:D15"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="C6:Q6"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="A18:D21"/>
+    <mergeCell ref="E15:Q15"/>
+    <mergeCell ref="E17:Q17"/>
+    <mergeCell ref="E18:Q18"/>
+    <mergeCell ref="E20:Q20"/>
+    <mergeCell ref="E21:Q21"/>
+    <mergeCell ref="E16:Q16"/>
+    <mergeCell ref="A16:D17"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="J4:K4"/>
@@ -1680,30 +1695,11 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="A18:D21"/>
-    <mergeCell ref="E15:Q15"/>
-    <mergeCell ref="E17:Q17"/>
-    <mergeCell ref="E18:Q18"/>
-    <mergeCell ref="E20:Q20"/>
-    <mergeCell ref="E21:Q21"/>
-    <mergeCell ref="E16:Q16"/>
-    <mergeCell ref="A16:D17"/>
-    <mergeCell ref="E12:Q12"/>
-    <mergeCell ref="E14:Q14"/>
-    <mergeCell ref="A12:D15"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="C6:Q6"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="E9:Q9"/>
+    <mergeCell ref="E10:Q10"/>
+    <mergeCell ref="E11:Q11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="1.4960629921259843" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.19685039370078741"/>
